--- a/src/main/resources/data/events/Regular_Events_Keyword.xlsx
+++ b/src/main/resources/data/events/Regular_Events_Keyword.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\bluePlanet\backend\src\main\resources\data\events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080C8FD4-9EAE-4BEE-82F9-1212A3155478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CEF3A8-6247-46E4-AD36-CEC867A2E830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>인간의 거주 환경과 자연 요소가 혼합된 도시 내 생태계. 녹지, 하천, 공원 등이 주요 요소이며 생물 다양성과 탄소 순환에 영향을 미친다.</t>
   </si>
@@ -491,6 +491,126 @@
   </si>
   <si>
     <t>채집된 표본을 바탕으로 종의 수와 균형도를 계량화한 생물다양성 지표.</t>
+  </si>
+  <si>
+    <t>법정 보호종 우점도</t>
+  </si>
+  <si>
+    <t>생물권 복원 경사도</t>
+  </si>
+  <si>
+    <t>도심 불쾌지수</t>
+  </si>
+  <si>
+    <t>연안 식생층 염분 축적율</t>
+  </si>
+  <si>
+    <t>정책 민감군 분포도</t>
+  </si>
+  <si>
+    <t>지하수 수직분산 농도</t>
+  </si>
+  <si>
+    <t>환경 불만 누적도</t>
+  </si>
+  <si>
+    <t>도시 하수 모니터링 위성자료 공개</t>
+  </si>
+  <si>
+    <t>탄소중립 수행도 인식편차</t>
+  </si>
+  <si>
+    <t>도시 조류서식 데이터 시각화 전시</t>
+  </si>
+  <si>
+    <t>부처별 국민호감도 갭</t>
+  </si>
+  <si>
+    <t>도심 초본식물 재도입 기획안</t>
+  </si>
+  <si>
+    <t>매체노출 기반 정책왜곡률</t>
+  </si>
+  <si>
+    <t>광역 오염저감 편차지수</t>
+  </si>
+  <si>
+    <t>지역별 정책 체감도 역전지수</t>
+  </si>
+  <si>
+    <t>도시 온도 순환이탈률</t>
+  </si>
+  <si>
+    <t>비자발적 환경동참 피로도</t>
+  </si>
+  <si>
+    <t>공감 반응 이탈지수</t>
+  </si>
+  <si>
+    <t>부서별 기여도 인식 지수</t>
+  </si>
+  <si>
+    <t>생태계 위기 다중지표</t>
+  </si>
+  <si>
+    <t>특정 지역에서 보호종이 차지하는 비율. 보호계획 우선 순위 기준.</t>
+  </si>
+  <si>
+    <t>경사도 구조물의 생물 복원 적합도. 낮을수록 생태 회복률이 높음.</t>
+  </si>
+  <si>
+    <t>온도와 습도로 산출되는 열 스트레스 지수. 민감도 높은 여론 반응 지표.</t>
+  </si>
+  <si>
+    <t>해안지역 식물의 염분 흡수 비율. 생태 안정성과 직결됨.</t>
+  </si>
+  <si>
+    <t>정책에 따라 태도 변화가 큰 인구군의 밀도 분포. 여론 전략 기초 자료.</t>
+  </si>
+  <si>
+    <t>지하수 오염이 수심에 따라 분산되는 농도 차이. 수질 안정성 평가 지표.</t>
+  </si>
+  <si>
+    <t>특정 기간 누적된 민원 데이터 기반 정량 지표. 사회적 피로도 측정에 활용됨.</t>
+  </si>
+  <si>
+    <t>도시 하수 흐름과 오염 농도를 위성으로 실시간 분석 후 시민에 공개하는 시스템.</t>
+  </si>
+  <si>
+    <t>실제 탄소 감축 성과와 시민 인식 간의 차이. 환경 신뢰도 지표로 활용됨.</t>
+  </si>
+  <si>
+    <t>조류 서식 위치와 변화량을 시민에게 시각적으로 전달하여 생태계 참여를 유도하는 기획.</t>
+  </si>
+  <si>
+    <t>정부 부처 간 여론 호감도의 상대적 차이. 정책지속성 판단 근거로 사용됨.</t>
+  </si>
+  <si>
+    <t>교란 식생이 아닌 전통 초본식물 종 복원 계획. 도시 생물다양성 개선 목표.</t>
+  </si>
+  <si>
+    <t>정책 전달 과정에서 발생하는 언론 왜곡 비율. 대중 인식 불일치 분석 지표.</t>
+  </si>
+  <si>
+    <t>동일 정책 시행 시 지역별 환경개선 격차를 수치화한 환경 효율 지표.</t>
+  </si>
+  <si>
+    <t>실제 정책성과 대비 시민 체감도가 반비례하는 지역 비율.</t>
+  </si>
+  <si>
+    <t>도시 평균온도 변화가 정상 순환 패턴에서 이탈하는 비율. 열섬 현상 조기 경보 지표.</t>
+  </si>
+  <si>
+    <t>시민이 자율성이 없다고 느낄 때 발생하는 환경 캠페인 회피 지수.</t>
+  </si>
+  <si>
+    <t>콘텐츠에 대한 감성 공감의 급감 비율. SNS 기반 정책 설계에 사용됨.</t>
+  </si>
+  <si>
+    <t>국민이 각 부서의 정책기여를 얼마나 체감하는지 수치화한 지표.</t>
+  </si>
+  <si>
+    <t>수온, 서식지 면적, 군집 밀도 등 종합 지표로 위기 정도를 평가.</t>
   </si>
 </sst>
 </file>
@@ -615,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -635,6 +755,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -975,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1841,104 +1963,224 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="80" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="81" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="82" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="83" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="85" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="86" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="87" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="88" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="89" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="92" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="93" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="94" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="95" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="96" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="97" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="17.25" thickBot="1">
       <c r="A99" s="3"/>

--- a/src/main/resources/data/events/Regular_Events_Keyword.xlsx
+++ b/src/main/resources/data/events/Regular_Events_Keyword.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\bluePlanet\backend\src\main\resources\data\events\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\sbluePlanet\backend\src\main\resources\data\events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080C8FD4-9EAE-4BEE-82F9-1212A3155478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95A4229-3D96-4576-8B64-E7CE565B1AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>인간의 거주 환경과 자연 요소가 혼합된 도시 내 생태계. 녹지, 하천, 공원 등이 주요 요소이며 생물 다양성과 탄소 순환에 영향을 미친다.</t>
   </si>
@@ -491,6 +491,126 @@
   </si>
   <si>
     <t>채집된 표본을 바탕으로 종의 수와 균형도를 계량화한 생물다양성 지표.</t>
+  </si>
+  <si>
+    <t>법정 보호종 우점도</t>
+  </si>
+  <si>
+    <t>특정 지역에서 보호종이 차지하는 비율. 보호계획 우선 순위 기준.</t>
+  </si>
+  <si>
+    <t>생물권 복원 경사도</t>
+  </si>
+  <si>
+    <t>경사도 구조물의 생물 복원 적합도. 낮을수록 생태 회복률이 높음.</t>
+  </si>
+  <si>
+    <t>도심 불쾌지수</t>
+  </si>
+  <si>
+    <t>온도와 습도로 산출되는 열 스트레스 지수. 민감도 높은 여론 반응 지표.</t>
+  </si>
+  <si>
+    <t>연안 식생층 염분 축적율</t>
+  </si>
+  <si>
+    <t>해안지역 식물의 염분 흡수 비율. 생태 안정성과 직결됨.</t>
+  </si>
+  <si>
+    <t>정책 민감군 분포도</t>
+  </si>
+  <si>
+    <t>정책에 따라 태도 변화가 큰 인구군의 밀도 분포. 여론 전략 기초 자료.</t>
+  </si>
+  <si>
+    <t>지하수 수직분산 농도</t>
+  </si>
+  <si>
+    <t>지하수 오염이 수심에 따라 분산되는 농도 차이. 수질 안정성 평가 지표.</t>
+  </si>
+  <si>
+    <t>환경 불만 누적도</t>
+  </si>
+  <si>
+    <t>특정 기간 누적된 민원 데이터 기반 정량 지표. 사회적 피로도 측정에 활용됨.</t>
+  </si>
+  <si>
+    <t>도시 하수 모니터링 위성자료 공개</t>
+  </si>
+  <si>
+    <t>도시 하수 흐름과 오염 농도를 위성으로 실시간 분석 후 시민에 공개하는 시스템.</t>
+  </si>
+  <si>
+    <t>탄소중립 수행도 인식편차</t>
+  </si>
+  <si>
+    <t>실제 탄소 감축 성과와 시민 인식 간의 차이. 환경 신뢰도 지표로 활용됨.</t>
+  </si>
+  <si>
+    <t>도시 조류서식 데이터 시각화 전시</t>
+  </si>
+  <si>
+    <t>조류 서식 위치와 변화량을 시민에게 시각적으로 전달하여 생태계 참여를 유도하는 기획.</t>
+  </si>
+  <si>
+    <t>부처별 국민호감도 갭</t>
+  </si>
+  <si>
+    <t>정부 부처 간 여론 호감도의 상대적 차이. 정책지속성 판단 근거로 사용됨.</t>
+  </si>
+  <si>
+    <t>도심 초본식물 재도입 기획안</t>
+  </si>
+  <si>
+    <t>교란 식생이 아닌 전통 초본식물 종 복원 계획. 도시 생물다양성 개선 목표.</t>
+  </si>
+  <si>
+    <t>매체노출 기반 정책왜곡률</t>
+  </si>
+  <si>
+    <t>정책 전달 과정에서 발생하는 언론 왜곡 비율. 대중 인식 불일치 분석 지표.</t>
+  </si>
+  <si>
+    <t>광역 오염저감 편차지수</t>
+  </si>
+  <si>
+    <t>동일 정책 시행 시 지역별 환경개선 격차를 수치화한 환경 효율 지표.</t>
+  </si>
+  <si>
+    <t>지역별 정책 체감도 역전지수</t>
+  </si>
+  <si>
+    <t>실제 정책성과 대비 시민 체감도가 반비례하는 지역 비율.</t>
+  </si>
+  <si>
+    <t>도시 온도 순환이탈률</t>
+  </si>
+  <si>
+    <t>도시 평균온도 변화가 정상 순환 패턴에서 이탈하는 비율. 열섬 현상 조기 경보 지표.</t>
+  </si>
+  <si>
+    <t>비자발적 환경동참 피로도</t>
+  </si>
+  <si>
+    <t>시민이 자율성이 없다고 느낄 때 발생하는 환경 캠페인 회피 지수.</t>
+  </si>
+  <si>
+    <t>공감 반응 이탈지수</t>
+  </si>
+  <si>
+    <t>콘텐츠에 대한 감성 공감의 급감 비율. SNS 기반 정책 설계에 사용됨.</t>
+  </si>
+  <si>
+    <t>부서별 기여도 인식 지수</t>
+  </si>
+  <si>
+    <t>국민이 각 부서의 정책기여를 얼마나 체감하는지 수치화한 지표.</t>
+  </si>
+  <si>
+    <t>생태계 위기 다중지표</t>
+  </si>
+  <si>
+    <t>수온, 서식지 면적, 군집 밀도 등 종합 지표로 위기 정도를 평가.</t>
   </si>
 </sst>
 </file>
@@ -615,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -635,6 +755,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -975,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1841,104 +1962,224 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="80" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="81" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="82" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="83" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="85" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="86" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="87" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="88" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="89" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="92" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="93" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="94" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="95" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="96" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="97" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="17.25" thickBot="1">
       <c r="A99" s="3"/>

--- a/src/main/resources/data/events/Regular_Events_Keyword.xlsx
+++ b/src/main/resources/data/events/Regular_Events_Keyword.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\bluePlanet\backend\src\main\resources\data\events\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\sbluePlanet\backend\src\main\resources\data\events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CEF3A8-6247-46E4-AD36-CEC867A2E830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601F19E6-D0F4-49A3-B12A-BBC7081ABEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1095,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:D994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:A98"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6662,36 +6662,6 @@
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
     </row>
-    <row r="995" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A995" s="3"/>
-      <c r="B995" s="3"/>
-      <c r="C995" s="3"/>
-    </row>
-    <row r="996" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A996" s="3"/>
-      <c r="B996" s="3"/>
-      <c r="C996" s="3"/>
-    </row>
-    <row r="997" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A997" s="3"/>
-      <c r="B997" s="3"/>
-      <c r="C997" s="3"/>
-    </row>
-    <row r="998" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A998" s="3"/>
-      <c r="B998" s="3"/>
-      <c r="C998" s="3"/>
-    </row>
-    <row r="999" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A999" s="3"/>
-      <c r="B999" s="3"/>
-      <c r="C999" s="3"/>
-    </row>
-    <row r="1000" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A1000" s="3"/>
-      <c r="B1000" s="3"/>
-      <c r="C1000" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/data/events/Regular_Events_Keyword.xlsx
+++ b/src/main/resources/data/events/Regular_Events_Keyword.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\sbluePlanet\backend\src\main\resources\data\events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601F19E6-D0F4-49A3-B12A-BBC7081ABEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB6D34D-659B-4037-9CAF-FAFF09E4D1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>인간의 거주 환경과 자연 요소가 혼합된 도시 내 생태계. 녹지, 하천, 공원 등이 주요 요소이며 생물 다양성과 탄소 순환에 영향을 미친다.</t>
   </si>
@@ -611,6 +611,25 @@
   </si>
   <si>
     <t>수온, 서식지 면적, 군집 밀도 등 종합 지표로 위기 정도를 평가.</t>
+  </si>
+  <si>
+    <t>광화학 스모그</t>
+  </si>
+  <si>
+    <t>이산화질소, 휘발성 유기화합물 등이 자외선과 반응하여 생성되는 스모그로, 오존과 유독 입자를 포함해 호흡기 질환을 유발함.</t>
+  </si>
+  <si>
+    <t>비산먼지</t>
+  </si>
+  <si>
+    <t>가공/건설/물류 작업 중 발생하며, 자연적으로 공기 중에 흩날리는 미세 입자 형태의 먼지.</t>
+  </si>
+  <si>
+    <t>도시바람길</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시 내 고밀도 지역에서 녹지나 저층 건물로 공기 흐름을 유도해 오염물질 확산을 막는 구조.</t>
   </si>
 </sst>
 </file>
@@ -1097,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2183,19 +2202,37 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="100" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="31.5" thickBot="1">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="17.25" thickBot="1">
       <c r="A102" s="3"/>
